--- a/results/transport/output.xlsx
+++ b/results/transport/output.xlsx
@@ -9,17 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="13080" windowHeight="14070" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="13620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="refuge" sheetId="2" r:id="rId2"/>
     <sheet name="hospital" sheetId="3" r:id="rId3"/>
-    <sheet name="critical" sheetId="4" r:id="rId4"/>
-    <sheet name="system_dur" sheetId="5" r:id="rId5"/>
-    <sheet name="r_hospital" sheetId="6" r:id="rId6"/>
-    <sheet name="r_critical" sheetId="7" r:id="rId7"/>
-    <sheet name="r_all" sheetId="8" r:id="rId8"/>
+    <sheet name="system_dur" sheetId="4" r:id="rId4"/>
+    <sheet name="restore" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -384,7 +381,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -395,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -403,10 +400,10 @@
         <v>0.85</v>
       </c>
       <c r="B3">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -417,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -425,10 +422,10 @@
         <v>0.9</v>
       </c>
       <c r="B5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -436,10 +433,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -447,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -461,7 +458,7 @@
         <v>0.95</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -469,10 +466,10 @@
         <v>0.9</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -513,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0.85</v>
@@ -524,10 +521,10 @@
         <v>0.95</v>
       </c>
       <c r="B14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -546,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -560,7 +557,7 @@
         <v>0.8</v>
       </c>
       <c r="C17">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -568,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C18">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -634,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C24">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -656,10 +653,10 @@
         <v>0.95</v>
       </c>
       <c r="B26">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="C26">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,10 +664,10 @@
         <v>0.95</v>
       </c>
       <c r="B27">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -678,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C28">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,7 +722,7 @@
         <v>0.95</v>
       </c>
       <c r="C32">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C34">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C35">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,13 +782,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -821,10 +818,10 @@
         <v>0.95</v>
       </c>
       <c r="B41">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C41">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -843,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -857,7 +854,7 @@
         <v>0.95</v>
       </c>
       <c r="C44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C45">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C48">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -934,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -945,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1019,10 +1016,10 @@
         <v>0.9</v>
       </c>
       <c r="B59">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="C59">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1044,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1052,7 +1049,7 @@
         <v>0.95</v>
       </c>
       <c r="B62">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C62">
         <v>0.8</v>
@@ -1074,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1151,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C71">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1162,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,7 +1195,7 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1206,10 +1203,10 @@
         <v>0.95</v>
       </c>
       <c r="B76">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C76">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1231,7 +1228,7 @@
         <v>0.8</v>
       </c>
       <c r="C78">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1239,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1250,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C80">
         <v>0.85</v>
@@ -1264,7 +1261,7 @@
         <v>0.95</v>
       </c>
       <c r="C81">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1272,10 +1269,10 @@
         <v>0.85</v>
       </c>
       <c r="B82">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C82">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1286,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1316,7 +1313,7 @@
         <v>0.85</v>
       </c>
       <c r="B86">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C86">
         <v>0.65</v>
@@ -1349,10 +1346,10 @@
         <v>0.85</v>
       </c>
       <c r="B89">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C89">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1360,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C90">
         <v>0.6</v>
@@ -1382,10 +1379,10 @@
         <v>0.85</v>
       </c>
       <c r="B92">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C92">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1407,7 +1404,7 @@
         <v>0.9</v>
       </c>
       <c r="C94">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1415,21 +1412,21 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -1453,10 +1450,10 @@
         <v>0.95</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1467,7 +1464,7 @@
         <v>0.95</v>
       </c>
       <c r="C2">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1478,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1486,10 +1483,10 @@
         <v>0.95</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C4">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1508,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1519,10 +1516,10 @@
         <v>0.95</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1533,7 +1530,7 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1541,10 +1538,10 @@
         <v>0.95</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1552,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1566,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1574,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1585,10 +1582,10 @@
         <v>0.95</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1599,7 +1596,7 @@
         <v>0.9</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1610,7 +1607,7 @@
         <v>0.9</v>
       </c>
       <c r="C15">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1621,7 +1618,7 @@
         <v>0.9</v>
       </c>
       <c r="C16">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1632,7 +1629,7 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,7 +1640,7 @@
         <v>0.9</v>
       </c>
       <c r="C18">
-        <v>0.55000000000000004</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1651,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C19">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1662,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.85</v>
@@ -1687,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1706,10 +1703,10 @@
         <v>0.95</v>
       </c>
       <c r="B24">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C24">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1717,10 +1714,10 @@
         <v>0.95</v>
       </c>
       <c r="B25">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C25">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,10 +1725,10 @@
         <v>0.95</v>
       </c>
       <c r="B26">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C26">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,10 +1736,10 @@
         <v>0.95</v>
       </c>
       <c r="B27">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C27">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1750,10 +1747,10 @@
         <v>0.95</v>
       </c>
       <c r="B28">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C28">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1761,10 +1758,10 @@
         <v>0.95</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C29">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,10 +1769,10 @@
         <v>0.95</v>
       </c>
       <c r="B30">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C30">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1783,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1794,10 +1791,10 @@
         <v>0.9</v>
       </c>
       <c r="B32">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C32">
-        <v>0.55000000000000004</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1805,10 +1802,10 @@
         <v>0.95</v>
       </c>
       <c r="B33">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C33">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1819,7 +1816,7 @@
         <v>0.9</v>
       </c>
       <c r="C34">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,10 +1824,10 @@
         <v>0.95</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C35">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,7 +1838,7 @@
         <v>0.9</v>
       </c>
       <c r="C36">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1860,10 +1857,10 @@
         <v>0.95</v>
       </c>
       <c r="B38">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C38">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,7 +1871,7 @@
         <v>0.95</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,10 +1879,10 @@
         <v>0.8</v>
       </c>
       <c r="B40">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C40">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,10 +1890,10 @@
         <v>0.95</v>
       </c>
       <c r="B41">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C41">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,10 +1901,10 @@
         <v>0.95</v>
       </c>
       <c r="B42">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C42">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1915,10 +1912,10 @@
         <v>0.95</v>
       </c>
       <c r="B43">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C43">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,10 +1923,10 @@
         <v>0.95</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C44">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,7 +1934,7 @@
         <v>0.95</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C45">
         <v>0.6</v>
@@ -1948,10 +1945,10 @@
         <v>0.95</v>
       </c>
       <c r="B46">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C46">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,10 +1967,10 @@
         <v>0.95</v>
       </c>
       <c r="B48">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C48">
-        <v>0.55000000000000004</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C50">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2003,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C51">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2014,10 +2011,10 @@
         <v>0.85</v>
       </c>
       <c r="B52">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C52">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C53">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2050,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C57">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2080,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>0.85</v>
@@ -2091,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C59">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2116,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2124,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0.9</v>
@@ -2135,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2190,10 +2187,10 @@
         <v>0.9</v>
       </c>
       <c r="B68">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C68">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,10 +2198,10 @@
         <v>0.95</v>
       </c>
       <c r="B69">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C69">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C71">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,10 +2264,10 @@
         <v>0.85</v>
       </c>
       <c r="B75">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C75">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C76">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,10 +2297,10 @@
         <v>0.95</v>
       </c>
       <c r="B78">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C78">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C79">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2322,10 +2319,10 @@
         <v>0.95</v>
       </c>
       <c r="B80">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,10 +2341,10 @@
         <v>0.95</v>
       </c>
       <c r="B82">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C82">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2355,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C83">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,10 +2385,10 @@
         <v>0.95</v>
       </c>
       <c r="B86">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="C86">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2410,7 +2407,7 @@
         <v>0.95</v>
       </c>
       <c r="B88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0.7</v>
@@ -2424,7 +2421,7 @@
         <v>0.95</v>
       </c>
       <c r="C89">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,7 +2432,7 @@
         <v>0.95</v>
       </c>
       <c r="C90">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2446,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="B92">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C92">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2465,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="C93">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2476,10 +2473,10 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C94">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2487,10 +2484,10 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C95">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,10 +2495,10 @@
         <v>0.95</v>
       </c>
       <c r="B96">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C96">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2512,1068 +2509,99 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C96"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>0.97716075760917498</v>
       </c>
       <c r="B1">
-        <v>0.85</v>
+        <v>0.96365240405822683</v>
       </c>
       <c r="C1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.96847643039626519</v>
+      </c>
+      <c r="D1">
+        <v>0.97049582491738795</v>
+      </c>
+      <c r="E1">
+        <v>0.96022645643410276</v>
+      </c>
+      <c r="F1">
+        <v>0.97352274771898872</v>
+      </c>
+      <c r="G1">
+        <v>0.97588980480811627</v>
+      </c>
+      <c r="H1">
+        <v>0.97348298963387714</v>
+      </c>
+      <c r="I1">
+        <v>0.96819657035730056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0.93900942876047644</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.92795613696515233</v>
       </c>
       <c r="C2">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.89654675093736214</v>
+      </c>
+      <c r="D2">
+        <v>0.89390012062854518</v>
+      </c>
+      <c r="E2">
+        <v>0.90403898553521511</v>
+      </c>
+      <c r="F2">
+        <v>0.92230428574745194</v>
+      </c>
+      <c r="G2">
+        <v>0.90019781098367879</v>
+      </c>
+      <c r="H2">
+        <v>0.90216213608292894</v>
+      </c>
+      <c r="I2">
+        <v>0.90935043559770645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.85</v>
+        <v>0.84221506947507729</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.78143333700926332</v>
       </c>
       <c r="C3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.9</v>
-      </c>
-      <c r="C5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.95</v>
-      </c>
-      <c r="B6">
-        <v>0.85</v>
-      </c>
-      <c r="C6">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0.85</v>
-      </c>
-      <c r="C8">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0.85</v>
-      </c>
-      <c r="C9">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0.95</v>
-      </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0.95</v>
-      </c>
-      <c r="C11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.95</v>
-      </c>
-      <c r="B12">
-        <v>0.95</v>
-      </c>
-      <c r="C12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.9</v>
-      </c>
-      <c r="B13">
-        <v>0.8</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0.95</v>
-      </c>
-      <c r="B14">
-        <v>0.85</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.95</v>
-      </c>
-      <c r="B15">
-        <v>0.85</v>
-      </c>
-      <c r="C15">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0.95</v>
-      </c>
-      <c r="B16">
-        <v>0.85</v>
-      </c>
-      <c r="C16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0.95</v>
-      </c>
-      <c r="C17">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0.95</v>
-      </c>
-      <c r="C19">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0.8</v>
-      </c>
-      <c r="C20">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>0.85</v>
-      </c>
-      <c r="C21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>0.95</v>
-      </c>
-      <c r="C22">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>0.95</v>
-      </c>
-      <c r="C24">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>0.85</v>
-      </c>
-      <c r="C25">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>0.85</v>
-      </c>
-      <c r="C26">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>0.95</v>
-      </c>
-      <c r="C27">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>0.95</v>
-      </c>
-      <c r="C28">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>0.75</v>
-      </c>
-      <c r="C31">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.9</v>
-      </c>
-      <c r="B32">
-        <v>0.85</v>
-      </c>
-      <c r="C32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>0.9</v>
-      </c>
-      <c r="C33">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>0.95</v>
-      </c>
-      <c r="C37">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0.95</v>
-      </c>
-      <c r="B39">
-        <v>0.85</v>
-      </c>
-      <c r="C39">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0.8</v>
-      </c>
-      <c r="B40">
-        <v>0.8</v>
-      </c>
-      <c r="C40">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>0.75</v>
-      </c>
-      <c r="B41">
-        <v>0.75</v>
-      </c>
-      <c r="C41">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>0.9</v>
-      </c>
-      <c r="C42">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0.95</v>
-      </c>
-      <c r="B47">
-        <v>0.9</v>
-      </c>
-      <c r="C47">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>0.95</v>
-      </c>
-      <c r="C48">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0.95</v>
-      </c>
-      <c r="B49">
-        <v>0.85</v>
-      </c>
-      <c r="C49">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0.95</v>
-      </c>
-      <c r="B50">
-        <v>0.9</v>
-      </c>
-      <c r="C50">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0.95</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>0.95</v>
-      </c>
-      <c r="B54">
-        <v>0.95</v>
-      </c>
-      <c r="C54">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>0.95</v>
-      </c>
-      <c r="B55">
-        <v>0.95</v>
-      </c>
-      <c r="C55">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0.95</v>
-      </c>
-      <c r="B60">
-        <v>0.9</v>
-      </c>
-      <c r="C60">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>0.95</v>
-      </c>
-      <c r="B61">
-        <v>0.9</v>
-      </c>
-      <c r="C61">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>0.9</v>
-      </c>
-      <c r="B67">
-        <v>0.7</v>
-      </c>
-      <c r="C67">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>0.95</v>
-      </c>
-      <c r="B69">
-        <v>0.95</v>
-      </c>
-      <c r="C69">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>0.95</v>
-      </c>
-      <c r="B70">
-        <v>0.95</v>
-      </c>
-      <c r="C70">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>0.95</v>
-      </c>
-      <c r="B73">
-        <v>0.7</v>
-      </c>
-      <c r="C73">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>0.85</v>
-      </c>
-      <c r="B75">
-        <v>0.7</v>
-      </c>
-      <c r="C75">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>0.95</v>
-      </c>
-      <c r="B78">
-        <v>0.8</v>
-      </c>
-      <c r="C78">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>0.9</v>
-      </c>
-      <c r="B81">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C81">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>0.9</v>
-      </c>
-      <c r="B82">
-        <v>0.7</v>
-      </c>
-      <c r="C82">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>0.95</v>
-      </c>
-      <c r="B83">
-        <v>0.75</v>
-      </c>
-      <c r="C83">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>0.95</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>0.95</v>
-      </c>
-      <c r="B85">
-        <v>0.9</v>
-      </c>
-      <c r="C85">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>0.9</v>
-      </c>
-      <c r="B86">
-        <v>0.85</v>
-      </c>
-      <c r="C86">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>0.85</v>
-      </c>
-      <c r="B87">
-        <v>0.65</v>
-      </c>
-      <c r="C87">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>0.95</v>
-      </c>
-      <c r="C88">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>0.95</v>
-      </c>
-      <c r="B89">
-        <v>0.9</v>
-      </c>
-      <c r="C89">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>0.95</v>
-      </c>
-      <c r="B90">
-        <v>0.85</v>
-      </c>
-      <c r="C90">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>0.95</v>
-      </c>
-      <c r="B92">
-        <v>0.95</v>
-      </c>
-      <c r="C92">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>0.85</v>
-      </c>
-      <c r="C93">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>0.95</v>
-      </c>
-      <c r="B94">
-        <v>0.8</v>
-      </c>
-      <c r="C94">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
+        <v>0.72546236307160705</v>
+      </c>
+      <c r="D3">
+        <v>0.68273860655166829</v>
+      </c>
+      <c r="E3">
+        <v>0.72703407204210158</v>
+      </c>
+      <c r="F3">
+        <v>0.73389978931116928</v>
+      </c>
+      <c r="G3">
+        <v>0.76084204069254513</v>
+      </c>
+      <c r="H3">
+        <v>0.7243979515880018</v>
+      </c>
+      <c r="I3">
+        <v>0.73502547419497133</v>
       </c>
     </row>
   </sheetData>
@@ -3584,714 +2612,90 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.9776597651080724</v>
+        <v>0.65</v>
       </c>
       <c r="B1">
-        <v>0.96365240405822683</v>
+        <v>1.55</v>
       </c>
       <c r="C1">
-        <v>0.97138977723864139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.55</v>
+      </c>
+      <c r="D1">
+        <v>1.75</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>0.9</v>
+      </c>
+      <c r="G1">
+        <v>1.5</v>
+      </c>
+      <c r="H1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.93249407256285866</v>
+        <v>3.05</v>
       </c>
       <c r="B2">
-        <v>0.90669111160123506</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="C2">
-        <v>0.90558075099250124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.25</v>
+      </c>
+      <c r="D2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E2">
+        <v>3.6</v>
+      </c>
+      <c r="F2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G2">
+        <v>3.45</v>
+      </c>
+      <c r="H2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.8509828517865019</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="B3">
-        <v>0.65593639722099684</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.68573899977944408</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0.99634153065725628</v>
-      </c>
-      <c r="B1">
-        <v>0.99877040141155715</v>
-      </c>
-      <c r="C1">
-        <v>0.99877040141155715</v>
-      </c>
-      <c r="D1">
-        <v>0.99877040141155715</v>
-      </c>
-      <c r="E1">
-        <v>0.99877040141155715</v>
-      </c>
-      <c r="F1">
-        <v>0.99877040141155715</v>
-      </c>
-      <c r="G1">
-        <v>0.99877040141155715</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.96829510366122629</v>
-      </c>
-      <c r="B2">
-        <v>0.98781429201588</v>
-      </c>
-      <c r="C2">
-        <v>0.98781429201588</v>
-      </c>
-      <c r="D2">
-        <v>0.98781429201588</v>
-      </c>
-      <c r="E2">
-        <v>0.98781429201588</v>
-      </c>
-      <c r="F2">
-        <v>0.98781429201588</v>
-      </c>
-      <c r="G2">
-        <v>0.98781429201588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>10.65</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>9.35</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.95953145677106289</v>
-      </c>
-      <c r="B4">
-        <v>0.97718625937362147</v>
-      </c>
-      <c r="C4">
-        <v>0.98461761138067927</v>
-      </c>
-      <c r="D4">
-        <v>0.99496167842964278</v>
-      </c>
-      <c r="E4">
-        <v>0.99496167842964278</v>
-      </c>
-      <c r="F4">
-        <v>0.99496167842964278</v>
-      </c>
-      <c r="G4">
-        <v>0.99496167842964278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.81590483017203352</v>
-      </c>
-      <c r="B5">
-        <v>0.9159131010145567</v>
-      </c>
-      <c r="C5">
-        <v>0.9159131010145567</v>
-      </c>
-      <c r="D5">
-        <v>0.97105205116894577</v>
-      </c>
-      <c r="E5">
-        <v>0.97105205116894577</v>
-      </c>
-      <c r="F5">
-        <v>0.97105205116894577</v>
-      </c>
-      <c r="G5">
-        <v>0.97105205116894577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.72661901742390822</v>
-      </c>
-      <c r="B7">
-        <v>0.76206233458314965</v>
-      </c>
-      <c r="C7">
-        <v>0.79953062968681088</v>
-      </c>
-      <c r="D7">
-        <v>0.82912783965593295</v>
-      </c>
-      <c r="E7">
-        <v>0.86056048742831925</v>
-      </c>
-      <c r="F7">
-        <v>0.89495754300838115</v>
-      </c>
-      <c r="G7">
-        <v>0.90803512351124849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>9.836788707543008E-2</v>
-      </c>
-      <c r="B8">
-        <v>0.13015549183943537</v>
-      </c>
-      <c r="C8">
-        <v>0.39425727834142038</v>
-      </c>
-      <c r="D8">
-        <v>0.41261854874283194</v>
-      </c>
-      <c r="E8">
-        <v>0.41261854874283194</v>
-      </c>
-      <c r="F8">
-        <v>0.43357134980149981</v>
-      </c>
-      <c r="G8">
-        <v>0.43357134980149981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.25</v>
-      </c>
-      <c r="B9">
-        <v>0.25</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9">
-        <v>0.4</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G9">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0.98943813409792669</v>
-      </c>
-      <c r="B1">
-        <v>0.99831619430966045</v>
-      </c>
-      <c r="C1">
-        <v>0.99831619430966045</v>
-      </c>
-      <c r="D1">
-        <v>0.99831619430966045</v>
-      </c>
-      <c r="E1">
-        <v>0.99831619430966045</v>
-      </c>
-      <c r="F1">
-        <v>0.99831619430966045</v>
-      </c>
-      <c r="G1">
-        <v>0.99831619430966045</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.96679256726951923</v>
-      </c>
-      <c r="B2">
-        <v>0.97437417291574768</v>
-      </c>
-      <c r="C2">
-        <v>0.97437417291574768</v>
-      </c>
-      <c r="D2">
-        <v>0.97437417291574768</v>
-      </c>
-      <c r="E2">
-        <v>0.97437417291574768</v>
-      </c>
-      <c r="F2">
-        <v>0.97437417291574768</v>
-      </c>
-      <c r="G2">
-        <v>0.97437417291574768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.93309439788266424</v>
-      </c>
-      <c r="B4">
-        <v>0.96676361932068811</v>
-      </c>
-      <c r="C4">
-        <v>0.98158565835906475</v>
-      </c>
-      <c r="D4">
-        <v>0.99008050286722538</v>
-      </c>
-      <c r="E4">
-        <v>0.99138384980149985</v>
-      </c>
-      <c r="F4">
-        <v>0.99138384980149985</v>
-      </c>
-      <c r="G4">
-        <v>0.99138384980149985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.68612152624614031</v>
-      </c>
-      <c r="B5">
-        <v>0.90776632112924571</v>
-      </c>
-      <c r="C5">
-        <v>0.91234285399205994</v>
-      </c>
-      <c r="D5">
-        <v>0.93383325981473309</v>
-      </c>
-      <c r="E5">
-        <v>0.93383325981473309</v>
-      </c>
-      <c r="F5">
-        <v>0.93383325981473309</v>
-      </c>
-      <c r="G5">
-        <v>0.93383325981473309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.76412866674018531</v>
-      </c>
-      <c r="B7">
-        <v>0.82732755293339211</v>
-      </c>
-      <c r="C7">
-        <v>0.85995326973974429</v>
-      </c>
-      <c r="D7">
-        <v>0.89287191221879136</v>
-      </c>
-      <c r="E7">
-        <v>0.92364702801058662</v>
-      </c>
-      <c r="F7">
-        <v>0.94054918394353759</v>
-      </c>
-      <c r="G7">
-        <v>0.94562817048963377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.22769629466254962</v>
-      </c>
-      <c r="B8">
-        <v>0.60626654168504635</v>
-      </c>
-      <c r="C8">
-        <v>0.62694364799294222</v>
-      </c>
-      <c r="D8">
-        <v>0.778065725628584</v>
-      </c>
-      <c r="E8">
-        <v>0.80977062196735772</v>
-      </c>
-      <c r="F8">
-        <v>0.80977062196735772</v>
-      </c>
-      <c r="G8">
-        <v>0.80977062196735772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.15</v>
-      </c>
-      <c r="B9">
-        <v>0.15</v>
-      </c>
-      <c r="C9">
-        <v>0.35</v>
-      </c>
-      <c r="D9">
-        <v>0.45</v>
-      </c>
-      <c r="E9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
-      <c r="G9">
-        <v>0.85</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0.98353014999395172</v>
-      </c>
-      <c r="B1">
-        <v>0.9983295784444175</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.9431058727470667</v>
-      </c>
-      <c r="B2">
-        <v>0.98493256320309663</v>
-      </c>
-      <c r="C2">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D2">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="E2">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F2">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G2">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.93396240322970847</v>
-      </c>
-      <c r="B4">
-        <v>0.96399710445143361</v>
-      </c>
-      <c r="C4">
-        <v>0.98659674761098337</v>
-      </c>
-      <c r="D4">
-        <v>0.99875521652352739</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.88615126406193312</v>
-      </c>
-      <c r="B5">
-        <v>0.92364219184710294</v>
-      </c>
-      <c r="C5">
-        <v>0.95172825692512408</v>
-      </c>
-      <c r="D5">
-        <v>0.98213151687431977</v>
-      </c>
-      <c r="E5">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F5">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G5">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.83629245040522571</v>
-      </c>
-      <c r="B7">
-        <v>0.86664751421313668</v>
-      </c>
-      <c r="C7">
-        <v>0.89726605026007034</v>
-      </c>
-      <c r="D7">
-        <v>0.9269527942421677</v>
-      </c>
-      <c r="E7">
-        <v>0.95477179599612927</v>
-      </c>
-      <c r="F7">
-        <v>0.97770030694326837</v>
-      </c>
-      <c r="G7">
-        <v>0.99180325390105251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.75978287165840097</v>
-      </c>
-      <c r="B8">
-        <v>0.78547992016450963</v>
-      </c>
-      <c r="C8">
-        <v>0.81623850852788205</v>
-      </c>
-      <c r="D8">
-        <v>0.84229844562719258</v>
-      </c>
-      <c r="E8">
-        <v>0.88012202128946426</v>
-      </c>
-      <c r="F8">
-        <v>0.90528985726382016</v>
-      </c>
-      <c r="G8">
-        <v>0.94021788435950182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.05</v>
-      </c>
-      <c r="B9">
-        <v>0.15</v>
-      </c>
-      <c r="C9">
-        <v>0.6</v>
-      </c>
-      <c r="D9">
-        <v>0.75</v>
-      </c>
-      <c r="E9">
-        <v>0.95</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>10.25</v>
+      </c>
+      <c r="H3">
+        <v>10.15</v>
       </c>
     </row>
   </sheetData>
